--- a/Output1A/SummaryStats/WilcoxTestResults_byGene_MF-SC.xlsx
+++ b/Output1A/SummaryStats/WilcoxTestResults_byGene_MF-SC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="1900" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13100" yWindow="1980" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WilcoxTestResults_MutFreq" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:E40"/>
     </sheetView>
   </sheetViews>
@@ -3075,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
